--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3647458.650396351</v>
+        <v>3645206.570685142</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625610.529198847</v>
+        <v>7625610.529198848</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>43.56973891764696</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826024</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.99506002739619</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.9824281355623</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>42.76773080618788</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917085</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>238.7798688144113</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>244.6249249904627</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.32727861849541</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
-        <v>406.87604574171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892427993</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881273</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183131</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>105.3305008047039</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796252</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728747</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>563.5047572728747</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5188524832672</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181849</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="D4" t="n">
-        <v>770.7703664058491</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="E4" t="n">
-        <v>622.857272823456</v>
+        <v>138.2242982780382</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9673253255456</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>308.2644887002646</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>319.8727631082779</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>319.8727631082779</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>319.8727631082779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213861</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1661.138951213861</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4638,13 +4638,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>679.6952191369613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>679.6952191369613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.6952191369613</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3078.509937780421</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2747.447050436851</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2394.678395166736</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955492</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976389</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273892</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273892</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273892</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273892</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121625</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121625</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121625</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270425</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>639.9526724577793</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>489.8360330454435</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>341.9229394630504</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057737</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194396</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>40.09054721822736</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
@@ -26335,25 +26335,25 @@
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073544</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>6.694760941172718e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405256</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.64000687974</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687974</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219695</v>
+        <v>-750285.7490219696</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056229</v>
+        <v>578458.9967056226</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056231</v>
+        <v>578458.9967056232</v>
       </c>
       <c r="E6" t="n">
-        <v>324817.6380673647</v>
+        <v>324782.9001419279</v>
       </c>
       <c r="F6" t="n">
-        <v>650230.0998747183</v>
+        <v>650195.3619492832</v>
       </c>
       <c r="G6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="H6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492835</v>
       </c>
       <c r="I6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492833</v>
       </c>
       <c r="J6" t="n">
-        <v>432698.8974774417</v>
+        <v>432664.1595520058</v>
       </c>
       <c r="K6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="L6" t="n">
-        <v>650230.0998747189</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="M6" t="n">
-        <v>565175.0719392076</v>
+        <v>565140.334013772</v>
       </c>
       <c r="N6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492835</v>
       </c>
       <c r="O6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492833</v>
       </c>
       <c r="P6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492834</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>367.3519867358065</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734511</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.42598799553505</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>1.772586778758523</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>311.9153108144951</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805533</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.74312952217969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.370246968439318</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>72.66698746754814</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.433795021484857e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28147,10 +28147,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,16 +28612,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.239344178339965e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614927</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,34 +33500,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,34 +33974,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394743</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
